--- a/natmiOut/OldD2/LR-pairs_lrc2p/Inhba-Bambi.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Inhba-Bambi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Bambi</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H2">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I2">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J2">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.67915502804217</v>
+        <v>3.6820245</v>
       </c>
       <c r="N2">
-        <v>3.67915502804217</v>
+        <v>7.364049</v>
       </c>
       <c r="O2">
-        <v>0.3669296627849651</v>
+        <v>0.3530310071884286</v>
       </c>
       <c r="P2">
-        <v>0.3669296627849651</v>
+        <v>0.272385881376442</v>
       </c>
       <c r="Q2">
-        <v>19.47680810905018</v>
+        <v>0.48481400692725</v>
       </c>
       <c r="R2">
-        <v>19.47680810905018</v>
+        <v>1.939256027709</v>
       </c>
       <c r="S2">
-        <v>0.2313156876693314</v>
+        <v>0.004017254347373463</v>
       </c>
       <c r="T2">
-        <v>0.2313156876693314</v>
+        <v>0.002438835885605268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H3">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I3">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J3">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.512938171213876</v>
+        <v>0.6024243333333333</v>
       </c>
       <c r="N3">
-        <v>0.512938171213876</v>
+        <v>1.807273</v>
       </c>
       <c r="O3">
-        <v>0.0511563738843589</v>
+        <v>0.05776019935540469</v>
       </c>
       <c r="P3">
-        <v>0.0511563738843589</v>
+        <v>0.06684850263664005</v>
       </c>
       <c r="Q3">
-        <v>2.715405645153281</v>
+        <v>0.07932151318216667</v>
       </c>
       <c r="R3">
-        <v>2.715405645153281</v>
+        <v>0.475929079093</v>
       </c>
       <c r="S3">
-        <v>0.03224942817082809</v>
+        <v>0.0006572720447804987</v>
       </c>
       <c r="T3">
-        <v>0.03224942817082809</v>
+        <v>0.0005985351601388706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H4">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I4">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J4">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99920492950201</v>
+        <v>2.026952</v>
       </c>
       <c r="N4">
-        <v>1.99920492950201</v>
+        <v>6.080856000000001</v>
       </c>
       <c r="O4">
-        <v>0.199384800322093</v>
+        <v>0.1943433309807145</v>
       </c>
       <c r="P4">
-        <v>0.199384800322093</v>
+        <v>0.2249223655468922</v>
       </c>
       <c r="Q4">
-        <v>10.58344388474938</v>
+        <v>0.266889783316</v>
       </c>
       <c r="R4">
-        <v>10.58344388474938</v>
+        <v>1.601338699896</v>
       </c>
       <c r="S4">
-        <v>0.1256939323118879</v>
+        <v>0.002211495804527465</v>
       </c>
       <c r="T4">
-        <v>0.1256939323118879</v>
+        <v>0.002013866261345913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H5">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I5">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J5">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.18606205513175</v>
+        <v>1.288179666666667</v>
       </c>
       <c r="N5">
-        <v>1.18606205513175</v>
+        <v>3.864539</v>
       </c>
       <c r="O5">
-        <v>0.118288396823312</v>
+        <v>0.1235101410006879</v>
       </c>
       <c r="P5">
-        <v>0.118288396823312</v>
+        <v>0.1429438969823033</v>
       </c>
       <c r="Q5">
-        <v>6.27880664912335</v>
+        <v>0.1696152607998333</v>
       </c>
       <c r="R5">
-        <v>6.27880664912335</v>
+        <v>1.017691564799</v>
       </c>
       <c r="S5">
-        <v>0.07457004605954229</v>
+        <v>0.00140546195879869</v>
       </c>
       <c r="T5">
-        <v>0.07457004605954229</v>
+        <v>0.001279863346172886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H6">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I6">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J6">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.08082302783615</v>
+        <v>2.258302666666667</v>
       </c>
       <c r="N6">
-        <v>2.08082302783615</v>
+        <v>6.774908</v>
       </c>
       <c r="O6">
-        <v>0.2075247403546914</v>
+        <v>0.2165251385344251</v>
       </c>
       <c r="P6">
-        <v>0.2075247403546914</v>
+        <v>0.2505943791009957</v>
       </c>
       <c r="Q6">
-        <v>11.01551593046732</v>
+        <v>0.2973518412713334</v>
       </c>
       <c r="R6">
-        <v>11.01551593046732</v>
+        <v>1.784111047628</v>
       </c>
       <c r="S6">
-        <v>0.1308254221236862</v>
+        <v>0.002463909788039637</v>
       </c>
       <c r="T6">
-        <v>0.1308254221236862</v>
+        <v>0.002243723358178934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>5.29382642498068</v>
+        <v>0.1316705</v>
       </c>
       <c r="H7">
-        <v>5.29382642498068</v>
+        <v>0.263341</v>
       </c>
       <c r="I7">
-        <v>0.6304087980068575</v>
+        <v>0.01137932438107136</v>
       </c>
       <c r="J7">
-        <v>0.6304087980068575</v>
+        <v>0.008953606087368216</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.568684063374384</v>
+        <v>0.5718650000000001</v>
       </c>
       <c r="N7">
-        <v>0.568684063374384</v>
+        <v>1.14373</v>
       </c>
       <c r="O7">
-        <v>0.05671602583057959</v>
+        <v>0.05483018294033913</v>
       </c>
       <c r="P7">
-        <v>0.05671602583057959</v>
+        <v>0.04230497435672659</v>
       </c>
       <c r="Q7">
-        <v>3.010514722156702</v>
+        <v>0.07529775048250001</v>
       </c>
       <c r="R7">
-        <v>3.010514722156702</v>
+        <v>0.30119100193</v>
       </c>
       <c r="S7">
-        <v>0.03575428167158156</v>
+        <v>0.000623930437551604</v>
       </c>
       <c r="T7">
-        <v>0.03575428167158156</v>
+        <v>0.0003787820759263435</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H8">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I8">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J8">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.67915502804217</v>
+        <v>3.6820245</v>
       </c>
       <c r="N8">
-        <v>3.67915502804217</v>
+        <v>7.364049</v>
       </c>
       <c r="O8">
-        <v>0.3669296627849651</v>
+        <v>0.3530310071884286</v>
       </c>
       <c r="P8">
-        <v>0.3669296627849651</v>
+        <v>0.272385881376442</v>
       </c>
       <c r="Q8">
-        <v>11.41871265561769</v>
+        <v>22.343118699286</v>
       </c>
       <c r="R8">
-        <v>11.41871265561769</v>
+        <v>134.058712195716</v>
       </c>
       <c r="S8">
-        <v>0.1356139751156338</v>
+        <v>0.1851390212454337</v>
       </c>
       <c r="T8">
-        <v>0.1356139751156338</v>
+        <v>0.1685941378597595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H9">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I9">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J9">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.512938171213876</v>
+        <v>0.6024243333333333</v>
       </c>
       <c r="N9">
-        <v>0.512938171213876</v>
+        <v>1.807273</v>
       </c>
       <c r="O9">
-        <v>0.0511563738843589</v>
+        <v>0.05776019935540469</v>
       </c>
       <c r="P9">
-        <v>0.0511563738843589</v>
+        <v>0.06684850263664005</v>
       </c>
       <c r="Q9">
-        <v>1.591967052909451</v>
+        <v>3.655608045792444</v>
       </c>
       <c r="R9">
-        <v>1.591967052909451</v>
+        <v>32.900472412132</v>
       </c>
       <c r="S9">
-        <v>0.01890694571353082</v>
+        <v>0.03029101285115464</v>
       </c>
       <c r="T9">
-        <v>0.01890694571353082</v>
+        <v>0.04137610074460683</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H10">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I10">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J10">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.99920492950201</v>
+        <v>2.026952</v>
       </c>
       <c r="N10">
-        <v>1.99920492950201</v>
+        <v>6.080856000000001</v>
       </c>
       <c r="O10">
-        <v>0.199384800322093</v>
+        <v>0.1943433309807145</v>
       </c>
       <c r="P10">
-        <v>0.199384800322093</v>
+        <v>0.2249223655468922</v>
       </c>
       <c r="Q10">
-        <v>6.20477975396046</v>
+        <v>12.29987175092267</v>
       </c>
       <c r="R10">
-        <v>6.20477975396046</v>
+        <v>110.698845758304</v>
       </c>
       <c r="S10">
-        <v>0.07369086801020509</v>
+        <v>0.1019189061320679</v>
       </c>
       <c r="T10">
-        <v>0.07369086801020509</v>
+        <v>0.1392164385067707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H11">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I11">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J11">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.18606205513175</v>
+        <v>1.288179666666667</v>
       </c>
       <c r="N11">
-        <v>1.18606205513175</v>
+        <v>3.864539</v>
       </c>
       <c r="O11">
-        <v>0.118288396823312</v>
+        <v>0.1235101410006879</v>
       </c>
       <c r="P11">
-        <v>0.118288396823312</v>
+        <v>0.1429438969823033</v>
       </c>
       <c r="Q11">
-        <v>3.681090276450731</v>
+        <v>7.816882043652889</v>
       </c>
       <c r="R11">
-        <v>3.681090276450731</v>
+        <v>70.35193839287601</v>
       </c>
       <c r="S11">
-        <v>0.04371835076376972</v>
+        <v>0.06477206294388746</v>
       </c>
       <c r="T11">
-        <v>0.04371835076376972</v>
+        <v>0.08847559554946162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.10362367679137</v>
+        <v>6.068161333333333</v>
       </c>
       <c r="H12">
-        <v>3.10362367679137</v>
+        <v>18.204484</v>
       </c>
       <c r="I12">
-        <v>0.3695912019931427</v>
+        <v>0.5244270828216987</v>
       </c>
       <c r="J12">
-        <v>0.3695912019931427</v>
+        <v>0.6189532915869436</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.08082302783615</v>
+        <v>2.258302666666667</v>
       </c>
       <c r="N12">
-        <v>2.08082302783615</v>
+        <v>6.774908</v>
       </c>
       <c r="O12">
-        <v>0.2075247403546914</v>
+        <v>0.2165251385344251</v>
       </c>
       <c r="P12">
-        <v>0.2075247403546914</v>
+        <v>0.2505943791009957</v>
       </c>
       <c r="Q12">
-        <v>6.458091616404983</v>
+        <v>13.70374492083022</v>
       </c>
       <c r="R12">
-        <v>6.458091616404983</v>
+        <v>123.333704287472</v>
       </c>
       <c r="S12">
-        <v>0.07669931823100522</v>
+        <v>0.1135516467591727</v>
       </c>
       <c r="T12">
-        <v>0.07669931823100522</v>
+        <v>0.1551062157977477</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.068161333333333</v>
+      </c>
+      <c r="H13">
+        <v>18.204484</v>
+      </c>
+      <c r="I13">
+        <v>0.5244270828216987</v>
+      </c>
+      <c r="J13">
+        <v>0.6189532915869436</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5718650000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.14373</v>
+      </c>
+      <c r="O13">
+        <v>0.05483018294033913</v>
+      </c>
+      <c r="P13">
+        <v>0.04230497435672659</v>
+      </c>
+      <c r="Q13">
+        <v>3.470169080886667</v>
+      </c>
+      <c r="R13">
+        <v>20.82101448532</v>
+      </c>
+      <c r="S13">
+        <v>0.02875443288998212</v>
+      </c>
+      <c r="T13">
+        <v>0.02618480312859716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H14">
+        <v>0.170058</v>
+      </c>
+      <c r="I14">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J14">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.6820245</v>
+      </c>
+      <c r="N14">
+        <v>7.364049</v>
+      </c>
+      <c r="O14">
+        <v>0.3530310071884286</v>
+      </c>
+      <c r="P14">
+        <v>0.272385881376442</v>
+      </c>
+      <c r="Q14">
+        <v>0.208719240807</v>
+      </c>
+      <c r="R14">
+        <v>1.252315444842</v>
+      </c>
+      <c r="S14">
+        <v>0.001729484432239659</v>
+      </c>
+      <c r="T14">
+        <v>0.001574929665468957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.170058</v>
+      </c>
+      <c r="I15">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J15">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6024243333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.807273</v>
+      </c>
+      <c r="O15">
+        <v>0.05776019935540469</v>
+      </c>
+      <c r="P15">
+        <v>0.06684850263664005</v>
+      </c>
+      <c r="Q15">
+        <v>0.03414902575933333</v>
+      </c>
+      <c r="R15">
+        <v>0.307341231834</v>
+      </c>
+      <c r="S15">
+        <v>0.0002829648488494184</v>
+      </c>
+      <c r="T15">
+        <v>0.0003865166922845135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.170058</v>
+      </c>
+      <c r="I16">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J16">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.026952</v>
+      </c>
+      <c r="N16">
+        <v>6.080856000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.1943433309807145</v>
+      </c>
+      <c r="P16">
+        <v>0.2249223655468922</v>
+      </c>
+      <c r="Q16">
+        <v>0.114899801072</v>
+      </c>
+      <c r="R16">
+        <v>1.034098209648</v>
+      </c>
+      <c r="S16">
+        <v>0.0009520800116612593</v>
+      </c>
+      <c r="T16">
+        <v>0.001300496575436272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.170058</v>
+      </c>
+      <c r="I17">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J17">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.288179666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.864539</v>
+      </c>
+      <c r="O17">
+        <v>0.1235101410006879</v>
+      </c>
+      <c r="P17">
+        <v>0.1429438969823033</v>
+      </c>
+      <c r="Q17">
+        <v>0.07302175258466666</v>
+      </c>
+      <c r="R17">
+        <v>0.657195773262</v>
+      </c>
+      <c r="S17">
+        <v>0.0006050711176494545</v>
+      </c>
+      <c r="T17">
+        <v>0.0008264987256958419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.170058</v>
+      </c>
+      <c r="I18">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J18">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.258302666666667</v>
+      </c>
+      <c r="N18">
+        <v>6.774908</v>
+      </c>
+      <c r="O18">
+        <v>0.2165251385344251</v>
+      </c>
+      <c r="P18">
+        <v>0.2505943791009957</v>
+      </c>
+      <c r="Q18">
+        <v>0.1280141449626667</v>
+      </c>
+      <c r="R18">
+        <v>1.152127304664</v>
+      </c>
+      <c r="S18">
+        <v>0.001060747777556969</v>
+      </c>
+      <c r="T18">
+        <v>0.001448931639377055</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05668599999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.170058</v>
+      </c>
+      <c r="I19">
+        <v>0.0048989590065004</v>
+      </c>
+      <c r="J19">
+        <v>0.005781979805672736</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.5718650000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.14373</v>
+      </c>
+      <c r="O19">
+        <v>0.05483018294033913</v>
+      </c>
+      <c r="P19">
+        <v>0.04230497435672659</v>
+      </c>
+      <c r="Q19">
+        <v>0.03241673939</v>
+      </c>
+      <c r="R19">
+        <v>0.19450043634</v>
+      </c>
+      <c r="S19">
+        <v>0.000268610818543639</v>
+      </c>
+      <c r="T19">
+        <v>0.0002446065074100961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.434455</v>
+      </c>
+      <c r="I20">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J20">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.6820245</v>
+      </c>
+      <c r="N20">
+        <v>7.364049</v>
+      </c>
+      <c r="O20">
+        <v>0.3530310071884286</v>
+      </c>
+      <c r="P20">
+        <v>0.272385881376442</v>
+      </c>
+      <c r="Q20">
+        <v>0.5332246513825</v>
+      </c>
+      <c r="R20">
+        <v>3.199347908295</v>
+      </c>
+      <c r="S20">
+        <v>0.00441839348345083</v>
+      </c>
+      <c r="T20">
+        <v>0.004023545306961836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3.10362367679137</v>
-      </c>
-      <c r="H13">
-        <v>3.10362367679137</v>
-      </c>
-      <c r="I13">
-        <v>0.3695912019931427</v>
-      </c>
-      <c r="J13">
-        <v>0.3695912019931427</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.568684063374384</v>
-      </c>
-      <c r="N13">
-        <v>0.568684063374384</v>
-      </c>
-      <c r="O13">
-        <v>0.05671602583057959</v>
-      </c>
-      <c r="P13">
-        <v>0.05671602583057959</v>
-      </c>
-      <c r="Q13">
-        <v>1.764981323702662</v>
-      </c>
-      <c r="R13">
-        <v>1.764981323702662</v>
-      </c>
-      <c r="S13">
-        <v>0.02096174415899804</v>
-      </c>
-      <c r="T13">
-        <v>0.02096174415899804</v>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.434455</v>
+      </c>
+      <c r="I21">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J21">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6024243333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.807273</v>
+      </c>
+      <c r="O21">
+        <v>0.05776019935540469</v>
+      </c>
+      <c r="P21">
+        <v>0.06684850263664005</v>
+      </c>
+      <c r="Q21">
+        <v>0.08724208791277778</v>
+      </c>
+      <c r="R21">
+        <v>0.7851787912149999</v>
+      </c>
+      <c r="S21">
+        <v>0.0007229033236123797</v>
+      </c>
+      <c r="T21">
+        <v>0.0009874519843022279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H22">
+        <v>0.434455</v>
+      </c>
+      <c r="I22">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J22">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.026952</v>
+      </c>
+      <c r="N22">
+        <v>6.080856000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.1943433309807145</v>
+      </c>
+      <c r="P22">
+        <v>0.2249223655468922</v>
+      </c>
+      <c r="Q22">
+        <v>0.2935398103866667</v>
+      </c>
+      <c r="R22">
+        <v>2.64185829348</v>
+      </c>
+      <c r="S22">
+        <v>0.002432322627963944</v>
+      </c>
+      <c r="T22">
+        <v>0.003322438460296873</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H23">
+        <v>0.434455</v>
+      </c>
+      <c r="I23">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J23">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.288179666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.864539</v>
+      </c>
+      <c r="O23">
+        <v>0.1235101410006879</v>
+      </c>
+      <c r="P23">
+        <v>0.1429438969823033</v>
+      </c>
+      <c r="Q23">
+        <v>0.1865520323605556</v>
+      </c>
+      <c r="R23">
+        <v>1.678968291245</v>
+      </c>
+      <c r="S23">
+        <v>0.001545803034367062</v>
+      </c>
+      <c r="T23">
+        <v>0.002111494336474538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H24">
+        <v>0.434455</v>
+      </c>
+      <c r="I24">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J24">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.258302666666667</v>
+      </c>
+      <c r="N24">
+        <v>6.774908</v>
+      </c>
+      <c r="O24">
+        <v>0.2165251385344251</v>
+      </c>
+      <c r="P24">
+        <v>0.2505943791009957</v>
+      </c>
+      <c r="Q24">
+        <v>0.3270436283488889</v>
+      </c>
+      <c r="R24">
+        <v>2.94339265514</v>
+      </c>
+      <c r="S24">
+        <v>0.002709941171238712</v>
+      </c>
+      <c r="T24">
+        <v>0.003701652350289657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1448183333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.434455</v>
+      </c>
+      <c r="I25">
+        <v>0.01251559606233833</v>
+      </c>
+      <c r="J25">
+        <v>0.01477148994151142</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5718650000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.14373</v>
+      </c>
+      <c r="O25">
+        <v>0.05483018294033913</v>
+      </c>
+      <c r="P25">
+        <v>0.04230497435672659</v>
+      </c>
+      <c r="Q25">
+        <v>0.08281653619166668</v>
+      </c>
+      <c r="R25">
+        <v>0.49689921715</v>
+      </c>
+      <c r="S25">
+        <v>0.0006862324217053985</v>
+      </c>
+      <c r="T25">
+        <v>0.0006249075031862852</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.1696935</v>
+      </c>
+      <c r="H26">
+        <v>10.339387</v>
+      </c>
+      <c r="I26">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J26">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.6820245</v>
+      </c>
+      <c r="N26">
+        <v>7.364049</v>
+      </c>
+      <c r="O26">
+        <v>0.3530310071884286</v>
+      </c>
+      <c r="P26">
+        <v>0.272385881376442</v>
+      </c>
+      <c r="Q26">
+        <v>19.03493812449075</v>
+      </c>
+      <c r="R26">
+        <v>76.139752497963</v>
+      </c>
+      <c r="S26">
+        <v>0.1577268536799308</v>
+      </c>
+      <c r="T26">
+        <v>0.0957544326586464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.1696935</v>
+      </c>
+      <c r="H27">
+        <v>10.339387</v>
+      </c>
+      <c r="I27">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J27">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.6024243333333333</v>
+      </c>
+      <c r="N27">
+        <v>1.807273</v>
+      </c>
+      <c r="O27">
+        <v>0.05776019935540469</v>
+      </c>
+      <c r="P27">
+        <v>0.06684850263664005</v>
+      </c>
+      <c r="Q27">
+        <v>3.114349160275167</v>
+      </c>
+      <c r="R27">
+        <v>18.686094961651</v>
+      </c>
+      <c r="S27">
+        <v>0.02580604628700774</v>
+      </c>
+      <c r="T27">
+        <v>0.0234998980553076</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.1696935</v>
+      </c>
+      <c r="H28">
+        <v>10.339387</v>
+      </c>
+      <c r="I28">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J28">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.026952</v>
+      </c>
+      <c r="N28">
+        <v>6.080856000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.1943433309807145</v>
+      </c>
+      <c r="P28">
+        <v>0.2249223655468922</v>
+      </c>
+      <c r="Q28">
+        <v>10.478720579212</v>
+      </c>
+      <c r="R28">
+        <v>62.87232347527201</v>
+      </c>
+      <c r="S28">
+        <v>0.08682852640449383</v>
+      </c>
+      <c r="T28">
+        <v>0.07906912574304245</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.1696935</v>
+      </c>
+      <c r="H29">
+        <v>10.339387</v>
+      </c>
+      <c r="I29">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J29">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.288179666666667</v>
+      </c>
+      <c r="N29">
+        <v>3.864539</v>
+      </c>
+      <c r="O29">
+        <v>0.1235101410006879</v>
+      </c>
+      <c r="P29">
+        <v>0.1429438969823033</v>
+      </c>
+      <c r="Q29">
+        <v>6.659494049598834</v>
+      </c>
+      <c r="R29">
+        <v>39.956964297593</v>
+      </c>
+      <c r="S29">
+        <v>0.05518174194598526</v>
+      </c>
+      <c r="T29">
+        <v>0.05025044502449844</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.1696935</v>
+      </c>
+      <c r="H30">
+        <v>10.339387</v>
+      </c>
+      <c r="I30">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J30">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.258302666666667</v>
+      </c>
+      <c r="N30">
+        <v>6.774908</v>
+      </c>
+      <c r="O30">
+        <v>0.2165251385344251</v>
+      </c>
+      <c r="P30">
+        <v>0.2505943791009957</v>
+      </c>
+      <c r="Q30">
+        <v>11.67473261689933</v>
+      </c>
+      <c r="R30">
+        <v>70.048395701396</v>
+      </c>
+      <c r="S30">
+        <v>0.09673889303841704</v>
+      </c>
+      <c r="T30">
+        <v>0.08809385595540235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.1696935</v>
+      </c>
+      <c r="H31">
+        <v>10.339387</v>
+      </c>
+      <c r="I31">
+        <v>0.4467790377283911</v>
+      </c>
+      <c r="J31">
+        <v>0.351539632578504</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.5718650000000001</v>
+      </c>
+      <c r="N31">
+        <v>1.14373</v>
+      </c>
+      <c r="O31">
+        <v>0.05483018294033913</v>
+      </c>
+      <c r="P31">
+        <v>0.04230497435672659</v>
+      </c>
+      <c r="Q31">
+        <v>2.9563667733775</v>
+      </c>
+      <c r="R31">
+        <v>11.82546709351</v>
+      </c>
+      <c r="S31">
+        <v>0.02449697637255636</v>
+      </c>
+      <c r="T31">
+        <v>0.0148718751416067</v>
       </c>
     </row>
   </sheetData>
